--- a/Jogos_do_Dia/2023-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="G3" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -805,28 +805,28 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.06</v>
@@ -876,7 +876,7 @@
         <v>2.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
@@ -915,25 +915,25 @@
         <v>2.97</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>3.05</v>
       </c>
       <c r="M5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="I6" t="n">
         <v>1.01</v>
@@ -1093,10 +1093,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N6" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.13</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>3.21</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
-        <v>3.36</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
         <v>1.09</v>
@@ -1203,10 +1203,10 @@
         <v>2.62</v>
       </c>
       <c r="M7" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="N7" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1266,7 +1266,7 @@
         <v>3.34</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.26</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.3</v>
       </c>
       <c r="M8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="N8" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
         <v>1.41</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="I9" t="n">
         <v>1.07</v>
@@ -1423,10 +1423,10 @@
         <v>2.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="O9" t="n">
         <v>1.52</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="N10" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.13</v>
+        <v>2.51</v>
       </c>
       <c r="G11" t="n">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.36</v>
+        <v>2.69</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1643,10 +1643,10 @@
         <v>2.9</v>
       </c>
       <c r="M11" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -1706,7 +1706,7 @@
         <v>2.63</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>2.8</v>
       </c>
       <c r="M12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O12" t="n">
         <v>1.48</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.03</v>
+        <v>2.69</v>
       </c>
       <c r="G14" t="n">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.56</v>
+        <v>2.43</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.46</v>
@@ -2036,7 +2036,7 @@
         <v>2.93</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2083,10 +2083,10 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.17</v>
       </c>
       <c r="G16" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>2.9</v>
       </c>
       <c r="M16" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="G17" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.97</v>
+        <v>2.57</v>
       </c>
       <c r="I17" t="n">
         <v>1.07</v>
@@ -2303,10 +2303,10 @@
         <v>2.85</v>
       </c>
       <c r="M17" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N17" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.47</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
         <v>1.06</v>
@@ -2413,10 +2413,10 @@
         <v>2.9</v>
       </c>
       <c r="M18" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2633,10 +2633,10 @@
         <v>3.05</v>
       </c>
       <c r="M20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N20" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O20" t="n">
         <v>1.48</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2743,10 +2743,10 @@
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="N21" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>1.05</v>
@@ -2853,10 +2853,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2966,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="O23" t="n">
         <v>1.46</v>
@@ -3165,10 +3165,10 @@
         <v>1.62</v>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
         <v>1.03</v>
@@ -3674,7 +3674,7 @@
         <v>2.19</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE29" t="n">
         <v>1.29</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="G33" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
         <v>1.05</v>
@@ -4063,10 +4063,10 @@
         <v>3.62</v>
       </c>
       <c r="M33" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="N33" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I34" t="n">
         <v>1.02</v>
@@ -4173,10 +4173,10 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="N34" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="O34" t="n">
         <v>1.32</v>
@@ -4700,52 +4700,52 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4808,52 +4808,52 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4916,52 +4916,52 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I42" t="n">
         <v>1.1</v>
@@ -5047,10 +5047,10 @@
         <v>2.5</v>
       </c>
       <c r="M42" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O42" t="n">
         <v>1.56</v>
@@ -5136,13 +5136,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G43" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I43" t="n">
         <v>1.08</v>
@@ -5157,10 +5157,10 @@
         <v>2.98</v>
       </c>
       <c r="M43" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N43" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="O43" t="n">
         <v>1.45</v>
@@ -5249,10 +5249,10 @@
         <v>1.95</v>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I44" t="n">
         <v>1.09</v>
@@ -5267,10 +5267,10 @@
         <v>2.88</v>
       </c>
       <c r="M44" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N44" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O44" t="n">
         <v>1.51</v>
@@ -5356,13 +5356,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I45" t="n">
         <v>1.07</v>
@@ -5377,10 +5377,10 @@
         <v>2.95</v>
       </c>
       <c r="M45" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="N45" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.47</v>
@@ -5466,13 +5466,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="G46" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
         <v>1.09</v>
@@ -5576,10 +5576,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H47" t="n">
         <v>2.7</v>
@@ -5597,10 +5597,10 @@
         <v>2.45</v>
       </c>
       <c r="M47" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O47" t="n">
         <v>1.54</v>
@@ -5686,13 +5686,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H48" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I48" t="n">
         <v>1.1</v>
@@ -5707,10 +5707,10 @@
         <v>2.65</v>
       </c>
       <c r="M48" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O48" t="n">
         <v>1.52</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF49" t="n">
         <v>1.57</v>
@@ -5969,16 +5969,16 @@
         <v>2.86</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE50" t="n">
         <v>1.5</v>
@@ -5990,7 +5990,7 @@
         <v>2.25</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="51">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -6198,10 +6198,10 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF52" t="n">
         <v>1.65</v>
@@ -6299,13 +6299,13 @@
         <v>3.53</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD53" t="n">
         <v>1.5</v>
@@ -6317,10 +6317,10 @@
         <v>2.38</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="54">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF54" t="n">
         <v>1.48</v>
@@ -6564,52 +6564,52 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="G58" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.49</v>
+        <v>2.18</v>
       </c>
       <c r="I58" t="n">
         <v>1.06</v>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.77</v>
+        <v>2.01</v>
       </c>
       <c r="G59" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="H59" t="n">
-        <v>4.14</v>
+        <v>2.93</v>
       </c>
       <c r="I59" t="n">
         <v>1.03</v>
@@ -6915,10 +6915,10 @@
         <v>4.6</v>
       </c>
       <c r="M59" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="N59" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O59" t="n">
         <v>1.28</v>
@@ -6969,16 +6969,16 @@
         <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG59" t="n">
         <v>1.93</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="60">
@@ -7004,13 +7004,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="G60" t="n">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
-        <v>3.14</v>
+        <v>2.75</v>
       </c>
       <c r="I60" t="n">
         <v>1.02</v>
@@ -7025,10 +7025,10 @@
         <v>5.05</v>
       </c>
       <c r="M60" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="N60" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O60" t="n">
         <v>1.25</v>
@@ -7079,16 +7079,16 @@
         <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG60" t="n">
         <v>1.9</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="61">
@@ -7114,13 +7114,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="G61" t="n">
-        <v>3.43</v>
+        <v>3.15</v>
       </c>
       <c r="H61" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>1.05</v>
@@ -7135,10 +7135,10 @@
         <v>3.8</v>
       </c>
       <c r="M61" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="N61" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
         <v>1.35</v>
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G62" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
         <v>1.02</v>
@@ -7245,10 +7245,10 @@
         <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="N62" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O62" t="n">
         <v>1.26</v>
@@ -8827,28 +8827,28 @@
         <v>3.03</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="77">
@@ -8937,28 +8937,28 @@
         <v>3.05</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="78">
@@ -9166,19 +9166,19 @@
         <v>2.12</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF79" t="n">
         <v>2</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="80">
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="G95" t="n">
-        <v>4.14</v>
+        <v>3.75</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="I95" t="n">
         <v>1.01</v>
@@ -10964,13 +10964,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="G96" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="H96" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I96" t="n">
         <v>1.01</v>
@@ -10985,10 +10985,10 @@
         <v>6.5</v>
       </c>
       <c r="M96" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="N96" t="n">
-        <v>2.88</v>
+        <v>3.11</v>
       </c>
       <c r="O96" t="n">
         <v>1.19</v>
@@ -11074,13 +11074,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G97" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="I97" t="n">
         <v>1.07</v>
@@ -11095,10 +11095,10 @@
         <v>2.8</v>
       </c>
       <c r="M97" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N97" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="O97" t="n">
         <v>1.46</v>
@@ -11366,19 +11366,19 @@
         <v>1.97</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="100">
@@ -11586,19 +11586,19 @@
         <v>7.2</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF101" t="n">
         <v>1.93</v>
       </c>
       <c r="AG101" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH101" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="102">
@@ -11806,19 +11806,19 @@
         <v>2.1</v>
       </c>
       <c r="AD103" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF103" t="n">
         <v>1.98</v>
       </c>
       <c r="AG103" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH103" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="104">
@@ -11916,19 +11916,19 @@
         <v>2.44</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE104" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="105">
@@ -12136,7 +12136,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE106" t="n">
         <v>1.27</v>
@@ -12466,7 +12466,7 @@
         <v>1.64</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE109" t="n">
         <v>1.27</v>
@@ -12576,7 +12576,7 @@
         <v>1.51</v>
       </c>
       <c r="AD110" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE110" t="n">
         <v>1.33</v>
@@ -12796,7 +12796,7 @@
         <v>10</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE112" t="n">
         <v>1.3</v>
@@ -13126,19 +13126,19 @@
         <v>2.2</v>
       </c>
       <c r="AD115" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE115" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF115" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG115" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH115" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="116">
@@ -13236,19 +13236,19 @@
         <v>2.05</v>
       </c>
       <c r="AD116" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE116" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF116" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG116" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH116" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="117">
@@ -13346,19 +13346,19 @@
         <v>2.63</v>
       </c>
       <c r="AD117" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE117" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF117" t="n">
         <v>2</v>
       </c>
       <c r="AG117" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH117" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="118">
@@ -13456,19 +13456,19 @@
         <v>2.39</v>
       </c>
       <c r="AD118" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE118" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF118" t="n">
         <v>1.9</v>
       </c>
       <c r="AG118" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH118" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="119">
@@ -13566,19 +13566,19 @@
         <v>1.75</v>
       </c>
       <c r="AD119" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE119" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF119" t="n">
         <v>1.85</v>
       </c>
       <c r="AG119" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AH119" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="120">
@@ -13676,19 +13676,19 @@
         <v>1.62</v>
       </c>
       <c r="AD120" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE120" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF120" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG120" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH120" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="121">
@@ -13786,19 +13786,19 @@
         <v>1.81</v>
       </c>
       <c r="AD121" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE121" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF121" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG121" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH121" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="122">
@@ -14006,16 +14006,16 @@
         <v>2.54</v>
       </c>
       <c r="AD123" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE123" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF123" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG123" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AH123" t="n">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         <v>1.69</v>
       </c>
       <c r="AD124" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE124" t="n">
         <v>1.26</v>
@@ -14226,19 +14226,19 @@
         <v>2.54</v>
       </c>
       <c r="AD125" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE125" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF125" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG125" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AH125" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="126">
@@ -14264,13 +14264,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="I126" t="n">
         <v>1.08</v>
@@ -14657,28 +14657,28 @@
         <v>2.89</v>
       </c>
       <c r="AA129" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB129" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AC129" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD129" t="n">
         <v>0</v>
       </c>
       <c r="AE129" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF129" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG129" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AH129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -14767,28 +14767,28 @@
         <v>3.24</v>
       </c>
       <c r="AA130" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AB130" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC130" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD130" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE130" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF130" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG130" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH130" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="131">
@@ -15254,13 +15254,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="G135" t="n">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="H135" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="I135" t="n">
         <v>1.05</v>
@@ -15275,7 +15275,7 @@
         <v>3.4</v>
       </c>
       <c r="M135" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="N135" t="n">
         <v>1.95</v>
@@ -15364,13 +15364,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="G136" t="n">
-        <v>3.47</v>
+        <v>3.25</v>
       </c>
       <c r="H136" t="n">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -15385,10 +15385,10 @@
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="N136" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -15474,13 +15474,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="G137" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -15495,10 +15495,10 @@
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N137" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -15584,13 +15584,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H138" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="I138" t="n">
         <v>1.06</v>
@@ -15605,10 +15605,10 @@
         <v>3.5</v>
       </c>
       <c r="M138" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N138" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="O138" t="n">
         <v>1.4</v>
@@ -15697,10 +15697,10 @@
         <v>1.55</v>
       </c>
       <c r="G139" t="n">
-        <v>4.25</v>
+        <v>3.88</v>
       </c>
       <c r="H139" t="n">
-        <v>5.85</v>
+        <v>4.46</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -15715,10 +15715,10 @@
         <v>3.98</v>
       </c>
       <c r="M139" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="N139" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="O139" t="n">
         <v>1.33</v>
@@ -15867,25 +15867,25 @@
         <v>3.14</v>
       </c>
       <c r="AA140" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB140" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC140" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AD140" t="n">
         <v>0</v>
       </c>
       <c r="AE140" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF140" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG140" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH140" t="n">
         <v>0</v>
@@ -16024,13 +16024,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H142" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I142" t="n">
         <v>1.04</v>
@@ -16048,7 +16048,7 @@
         <v>1.8</v>
       </c>
       <c r="N142" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O142" t="n">
         <v>1.36</v>
@@ -16087,28 +16087,28 @@
         <v>2.93</v>
       </c>
       <c r="AA142" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB142" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC142" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AD142" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE142" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF142" t="n">
         <v>1.85</v>
       </c>
       <c r="AG142" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH142" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="143">
@@ -16134,13 +16134,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G143" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H143" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I143" t="n">
         <v>1.01</v>
@@ -16155,10 +16155,10 @@
         <v>3.6</v>
       </c>
       <c r="M143" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N143" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O143" t="n">
         <v>1.36</v>
@@ -16197,25 +16197,25 @@
         <v>3.16</v>
       </c>
       <c r="AA143" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC143" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AD143" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE143" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF143" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG143" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AH143" t="n">
         <v>1.95</v>
@@ -16247,10 +16247,10 @@
         <v>1.95</v>
       </c>
       <c r="G144" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H144" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I144" t="n">
         <v>1.05</v>
@@ -16265,10 +16265,10 @@
         <v>3</v>
       </c>
       <c r="M144" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N144" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O144" t="n">
         <v>1.45</v>
@@ -16307,28 +16307,28 @@
         <v>2.74</v>
       </c>
       <c r="AA144" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB144" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC144" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AD144" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE144" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF144" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG144" t="n">
         <v>1.9</v>
       </c>
       <c r="AH144" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="145">
@@ -16464,13 +16464,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I146" t="n">
         <v>1.04</v>
@@ -16488,7 +16488,7 @@
         <v>1.75</v>
       </c>
       <c r="N146" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O146" t="n">
         <v>1.33</v>
@@ -16574,13 +16574,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G147" t="n">
-        <v>4.34</v>
+        <v>4.2</v>
       </c>
       <c r="H147" t="n">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="I147" t="n">
         <v>1.01</v>
@@ -16595,10 +16595,10 @@
         <v>5.7</v>
       </c>
       <c r="M147" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="N147" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="O147" t="n">
         <v>1.25</v>
@@ -16794,13 +16794,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="G149" t="n">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="H149" t="n">
-        <v>2.95</v>
+        <v>2.54</v>
       </c>
       <c r="I149" t="n">
         <v>1.02</v>
@@ -16815,10 +16815,10 @@
         <v>3.7</v>
       </c>
       <c r="M149" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="N149" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="O149" t="n">
         <v>1.34</v>
@@ -17187,28 +17187,28 @@
         <v>2.81</v>
       </c>
       <c r="AA152" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AB152" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC152" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AD152" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE152" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF152" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG152" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH152" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="153">
@@ -17344,10 +17344,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="G154" t="n">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="H154" t="n">
         <v>3.3</v>
@@ -17407,25 +17407,25 @@
         <v>0</v>
       </c>
       <c r="AA154" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB154" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC154" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AD154" t="n">
         <v>0</v>
       </c>
       <c r="AE154" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF154" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG154" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AH154" t="n">
         <v>2</v>
@@ -18507,28 +18507,28 @@
         <v>2.7</v>
       </c>
       <c r="AA164" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB164" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC164" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD164" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE164" t="n">
         <v>1.93</v>
       </c>
       <c r="AF164" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG164" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH164" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="165">
@@ -18617,28 +18617,28 @@
         <v>2.88</v>
       </c>
       <c r="AA165" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB165" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AC165" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AD165" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE165" t="n">
         <v>1.85</v>
       </c>
       <c r="AF165" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG165" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH165" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="166">
@@ -18727,28 +18727,28 @@
         <v>2.43</v>
       </c>
       <c r="AA166" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB166" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC166" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AD166" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE166" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF166" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AG166" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH166" t="n">
-        <v>0</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="167">
@@ -18837,28 +18837,28 @@
         <v>2.45</v>
       </c>
       <c r="AA167" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB167" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC167" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD167" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE167" t="n">
         <v>1.9</v>
       </c>
       <c r="AF167" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AG167" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH167" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="168">
@@ -18947,28 +18947,28 @@
         <v>2.79</v>
       </c>
       <c r="AA168" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AB168" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC168" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD168" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE168" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AF168" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AG168" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AH168" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="169">
@@ -19057,28 +19057,28 @@
         <v>2.68</v>
       </c>
       <c r="AA169" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AB169" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC169" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AD169" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AE169" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AF169" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AG169" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AH169" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="170">
@@ -19167,28 +19167,28 @@
         <v>3.22</v>
       </c>
       <c r="AA170" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB170" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD170" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE170" t="n">
         <v>1.8</v>
       </c>
       <c r="AF170" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG170" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH170" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="171">
@@ -19277,28 +19277,28 @@
         <v>2.85</v>
       </c>
       <c r="AA171" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB171" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC171" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD171" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE171" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF171" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG171" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AH171" t="n">
-        <v>0</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="172">
@@ -19396,7 +19396,7 @@
         <v>2</v>
       </c>
       <c r="AD172" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE172" t="n">
         <v>1.27</v>
@@ -19836,7 +19836,7 @@
         <v>1.51</v>
       </c>
       <c r="AD176" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE176" t="n">
         <v>1.29</v>
@@ -20047,25 +20047,25 @@
         <v>3.5</v>
       </c>
       <c r="AA178" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB178" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC178" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AD178" t="n">
         <v>0</v>
       </c>
       <c r="AE178" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF178" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG178" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH178" t="n">
         <v>0</v>
@@ -20314,13 +20314,13 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="G181" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H181" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I181" t="n">
         <v>1.06</v>
@@ -20335,10 +20335,10 @@
         <v>3.1</v>
       </c>
       <c r="M181" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="N181" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="O181" t="n">
         <v>1.42</v>
@@ -20398,7 +20398,7 @@
         <v>2.79</v>
       </c>
       <c r="AH181" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="182">
@@ -20754,13 +20754,13 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="G185" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H185" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I185" t="n">
         <v>1.07</v>
@@ -20775,10 +20775,10 @@
         <v>3</v>
       </c>
       <c r="M185" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="N185" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="O185" t="n">
         <v>1.44</v>
@@ -20826,7 +20826,7 @@
         <v>3.32</v>
       </c>
       <c r="AD185" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE185" t="n">
         <v>1.28</v>
@@ -20864,37 +20864,37 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G186" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="H186" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J186" t="n">
+        <v>8</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L186" t="n">
+        <v>3</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P186" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0</v>
-      </c>
-      <c r="M186" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N186" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0</v>
-      </c>
-      <c r="P186" t="n">
-        <v>0</v>
       </c>
       <c r="Q186" t="n">
         <v>1.8</v>
@@ -20903,13 +20903,13 @@
         <v>1.95</v>
       </c>
       <c r="S186" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T186" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U186" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V186" t="n">
         <v>0</v>
@@ -20927,28 +20927,28 @@
         <v>0</v>
       </c>
       <c r="AA186" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB186" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC186" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD186" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE186" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF186" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG186" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH186" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="187">
@@ -20974,13 +20974,13 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2.32</v>
+        <v>2.43</v>
       </c>
       <c r="G187" t="n">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H187" t="n">
-        <v>3.15</v>
+        <v>2.69</v>
       </c>
       <c r="I187" t="n">
         <v>1.1</v>
@@ -20989,16 +20989,16 @@
         <v>6.5</v>
       </c>
       <c r="K187" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="L187" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="M187" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N187" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="O187" t="n">
         <v>1.56</v>
@@ -21084,52 +21084,52 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="G188" t="n">
-        <v>5.5</v>
+        <v>4.84</v>
       </c>
       <c r="H188" t="n">
-        <v>9</v>
+        <v>9.16</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M188" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="N188" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O188" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P188" t="n">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R188" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S188" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U188" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="V188" t="n">
         <v>0</v>
@@ -21147,28 +21147,28 @@
         <v>0</v>
       </c>
       <c r="AA188" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AB188" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC188" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AD188" t="n">
         <v>0</v>
       </c>
       <c r="AE188" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF188" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG188" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH188" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="189">
@@ -21194,13 +21194,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="G189" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I189" t="n">
         <v>1.04</v>
@@ -21215,10 +21215,10 @@
         <v>3.75</v>
       </c>
       <c r="M189" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="N189" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O189" t="n">
         <v>1.36</v>
@@ -21744,13 +21744,13 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -21765,10 +21765,10 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="N194" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O194" t="n">
         <v>0</v>
@@ -22074,13 +22074,13 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="G197" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H197" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I197" t="n">
         <v>1.11</v>
@@ -22095,10 +22095,10 @@
         <v>2.5</v>
       </c>
       <c r="M197" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N197" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="O197" t="n">
         <v>1.5</v>
@@ -22184,13 +22184,13 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="G198" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H198" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="I198" t="n">
         <v>1.09</v>
@@ -22205,10 +22205,10 @@
         <v>2.5</v>
       </c>
       <c r="M198" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N198" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O198" t="n">
         <v>1.53</v>
@@ -22294,13 +22294,13 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="G199" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="H199" t="n">
-        <v>3.44</v>
+        <v>3.65</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>2.1</v>
       </c>
       <c r="N199" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O199" t="n">
         <v>0</v>
@@ -22404,13 +22404,13 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="G200" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="H200" t="n">
-        <v>3.31</v>
+        <v>3.45</v>
       </c>
       <c r="I200" t="n">
         <v>1.09</v>
@@ -22514,13 +22514,13 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="H201" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -22577,13 +22577,13 @@
         <v>0</v>
       </c>
       <c r="AA201" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB201" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC201" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD201" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="AF201" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG201" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH201" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="202">
@@ -22624,13 +22624,13 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G202" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H202" t="n">
-        <v>5.5</v>
+        <v>4.74</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -22645,10 +22645,10 @@
         <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="N202" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="O202" t="n">
         <v>0</v>
@@ -22687,13 +22687,13 @@
         <v>0</v>
       </c>
       <c r="AA202" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB202" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC202" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="AD202" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="AG202" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH202" t="n">
         <v>0</v>
@@ -22734,13 +22734,13 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="G203" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="H203" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -22797,28 +22797,28 @@
         <v>0</v>
       </c>
       <c r="AA203" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB203" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC203" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AD203" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE203" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF203" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG203" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH203" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="204">
@@ -23064,10 +23064,10 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="G206" t="n">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="H206" t="n">
         <v>2.43</v>
@@ -23085,10 +23085,10 @@
         <v>3.2</v>
       </c>
       <c r="M206" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="N206" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="O206" t="n">
         <v>1.42</v>
@@ -23127,28 +23127,28 @@
         <v>0</v>
       </c>
       <c r="AA206" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB206" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD206" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE206" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF206" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG206" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH206" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="207">
@@ -23174,13 +23174,13 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H207" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I207" t="n">
         <v>1.04</v>
@@ -23195,7 +23195,7 @@
         <v>4.13</v>
       </c>
       <c r="M207" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="N207" t="n">
         <v>2.06</v>
@@ -23284,13 +23284,13 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H208" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I208" t="n">
         <v>1.04</v>
@@ -23305,10 +23305,10 @@
         <v>3.6</v>
       </c>
       <c r="M208" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="N208" t="n">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="O208" t="n">
         <v>1.36</v>
@@ -23394,13 +23394,13 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="G209" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H209" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I209" t="n">
         <v>1.05</v>
@@ -23415,10 +23415,10 @@
         <v>3.85</v>
       </c>
       <c r="M209" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="N209" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="O209" t="n">
         <v>1.36</v>
@@ -23504,13 +23504,13 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G210" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H210" t="n">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
       <c r="I210" t="n">
         <v>1.05</v>
@@ -23525,10 +23525,10 @@
         <v>3.3</v>
       </c>
       <c r="M210" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="N210" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="O210" t="n">
         <v>1.38</v>
@@ -23614,13 +23614,13 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H211" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H211" t="n">
-        <v>3.7</v>
       </c>
       <c r="I211" t="n">
         <v>1.05</v>
@@ -23635,10 +23635,10 @@
         <v>3</v>
       </c>
       <c r="M211" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="N211" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="O211" t="n">
         <v>1.42</v>
@@ -23724,13 +23724,13 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="G212" t="n">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="H212" t="n">
-        <v>2.85</v>
+        <v>2.48</v>
       </c>
       <c r="I212" t="n">
         <v>1.05</v>
@@ -23745,10 +23745,10 @@
         <v>3.6</v>
       </c>
       <c r="M212" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="N212" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="O212" t="n">
         <v>1.36</v>
@@ -23837,10 +23837,10 @@
         <v>1.63</v>
       </c>
       <c r="G213" t="n">
-        <v>3.86</v>
+        <v>3.75</v>
       </c>
       <c r="H213" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N213" t="n">
         <v>1.9</v>
-      </c>
-      <c r="N213" t="n">
-        <v>1.84</v>
       </c>
       <c r="O213" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G214" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H214" t="n">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -23965,10 +23965,10 @@
         <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="N214" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O214" t="n">
         <v>0</v>
@@ -24007,13 +24007,13 @@
         <v>0</v>
       </c>
       <c r="AA214" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB214" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC214" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AD214" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="AF214" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG214" t="n">
         <v>0</v>
